--- a/ehWiki.fetishListing.translate.zh_CN/Excel/标签列表.xlsx
+++ b/ehWiki.fetishListing.translate.zh_CN/Excel/标签列表.xlsx
@@ -7053,7 +7053,7 @@
     <t xml:space="preserve">Meta-Language</t>
   </si>
   <si>
-    <t xml:space="preserve">语言</t>
+    <t xml:space="preserve">元语言</t>
   </si>
   <si>
     <t xml:space="preserve">rewrite</t>
@@ -7274,8 +7274,8 @@
   </sheetPr>
   <dimension ref="A1:E927"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A913" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B922" activeCellId="0" sqref="B922"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ehWiki.fetishListing.translate.zh_CN/Excel/标签列表.xlsx
+++ b/ehWiki.fetishListing.translate.zh_CN/Excel/标签列表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2761" uniqueCount="2343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2764" uniqueCount="2346">
   <si>
     <t xml:space="preserve">父级</t>
   </si>
@@ -6172,6 +6172,16 @@
   </si>
   <si>
     <t xml:space="preserve">所有内容的页面都是彩色的。只要不是故事页面，就允许使用数量非常有限的非彩色插图。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">game manual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">游戏手册</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提供有关如何操作电子游戏的详细信息的说明书或小册子。也适用于任何包含电子游戏提示或解决方案的指导手册。专注于电子游戏的评论、回顾和新闻的出版物也符合条件。
+所有游戏手册都属于杂项(misc)类别。</t>
   </si>
   <si>
     <t xml:space="preserve">game sprite</t>
@@ -7234,7 +7244,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -7255,6 +7265,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7272,10 +7286,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E927"/>
+  <dimension ref="A1:E928"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A913" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B922" activeCellId="0" sqref="B922"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A790" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E799" activeCellId="0" sqref="E799"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17766,7 +17780,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="799" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="799" customFormat="false" ht="13.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="1" t="s">
@@ -17775,7 +17789,7 @@
       <c r="D799" s="1" t="s">
         <v>2032</v>
       </c>
-      <c r="E799" s="1" t="s">
+      <c r="E799" s="5" t="s">
         <v>2033</v>
       </c>
     </row>
@@ -17975,25 +17989,25 @@
       </c>
     </row>
     <row r="815" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A815" s="2" t="s">
+      <c r="A815" s="2"/>
+      <c r="B815" s="2"/>
+      <c r="C815" s="1" t="s">
         <v>2079</v>
       </c>
-      <c r="B815" s="2" t="s">
+      <c r="D815" s="1" t="s">
         <v>2080</v>
       </c>
-      <c r="C815" s="1" t="s">
+      <c r="E815" s="1" t="s">
         <v>2081</v>
       </c>
-      <c r="D815" s="1" t="s">
+    </row>
+    <row r="816" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A816" s="2" t="s">
         <v>2082</v>
       </c>
-      <c r="E815" s="1" t="s">
+      <c r="B816" s="2" t="s">
         <v>2083</v>
       </c>
-    </row>
-    <row r="816" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A816" s="2"/>
-      <c r="B816" s="2"/>
       <c r="C816" s="1" t="s">
         <v>2084</v>
       </c>
@@ -18018,25 +18032,25 @@
       </c>
     </row>
     <row r="818" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A818" s="2" t="s">
+      <c r="A818" s="2"/>
+      <c r="B818" s="2"/>
+      <c r="C818" s="1" t="s">
         <v>2090</v>
       </c>
-      <c r="B818" s="2" t="s">
+      <c r="D818" s="1" t="s">
+        <v>2091</v>
+      </c>
+      <c r="E818" s="1" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="819" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A819" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B819" s="2" t="s">
         <v>1362</v>
       </c>
-      <c r="C818" s="1" t="s">
-        <v>2091</v>
-      </c>
-      <c r="D818" s="1" t="s">
-        <v>2092</v>
-      </c>
-      <c r="E818" s="1" t="s">
-        <v>2093</v>
-      </c>
-    </row>
-    <row r="819" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A819" s="2"/>
-      <c r="B819" s="2"/>
       <c r="C819" s="1" t="s">
         <v>2094</v>
       </c>
@@ -18048,28 +18062,30 @@
       </c>
     </row>
     <row r="820" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A820" s="2" t="s">
+      <c r="A820" s="2"/>
+      <c r="B820" s="2"/>
+      <c r="C820" s="1" t="s">
         <v>2097</v>
       </c>
-      <c r="B820" s="2" t="s">
+      <c r="D820" s="1" t="s">
         <v>2098</v>
       </c>
-      <c r="C820" s="1" t="s">
+      <c r="E820" s="1" t="s">
         <v>2099</v>
       </c>
-      <c r="D820" s="1" t="s">
+    </row>
+    <row r="821" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A821" s="2" t="s">
         <v>2100</v>
       </c>
-      <c r="E820" s="1"/>
-    </row>
-    <row r="821" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A821" s="2"/>
-      <c r="B821" s="2"/>
+      <c r="B821" s="2" t="s">
+        <v>2101</v>
+      </c>
       <c r="C821" s="1" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="D821" s="1" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="E821" s="1"/>
     </row>
@@ -18077,10 +18093,10 @@
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="1" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="D822" s="1" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="E822" s="1"/>
     </row>
@@ -18088,33 +18104,31 @@
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="1" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="D823" s="1" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="E823" s="1"/>
     </row>
     <row r="824" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A824" s="2" t="s">
-        <v>2107</v>
-      </c>
-      <c r="B824" s="2" t="s">
+      <c r="A824" s="2"/>
+      <c r="B824" s="2"/>
+      <c r="C824" s="1" t="s">
         <v>2108</v>
       </c>
-      <c r="C824" s="1" t="s">
+      <c r="D824" s="1" t="s">
         <v>2109</v>
       </c>
-      <c r="D824" s="1" t="s">
+      <c r="E824" s="1"/>
+    </row>
+    <row r="825" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A825" s="2" t="s">
         <v>2110</v>
       </c>
-      <c r="E824" s="1" t="s">
+      <c r="B825" s="2" t="s">
         <v>2111</v>
       </c>
-    </row>
-    <row r="825" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A825" s="2"/>
-      <c r="B825" s="2"/>
       <c r="C825" s="1" t="s">
         <v>2112</v>
       </c>
@@ -18191,25 +18205,25 @@
       </c>
     </row>
     <row r="831" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A831" s="2" t="s">
+      <c r="A831" s="2"/>
+      <c r="B831" s="2"/>
+      <c r="C831" s="1" t="s">
         <v>2130</v>
       </c>
-      <c r="B831" s="2" t="s">
+      <c r="D831" s="1" t="s">
         <v>2131</v>
       </c>
-      <c r="C831" s="1" t="s">
+      <c r="E831" s="1" t="s">
         <v>2132</v>
       </c>
-      <c r="D831" s="1" t="s">
+    </row>
+    <row r="832" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A832" s="2" t="s">
         <v>2133</v>
       </c>
-      <c r="E831" s="1" t="s">
+      <c r="B832" s="2" t="s">
         <v>2134</v>
       </c>
-    </row>
-    <row r="832" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A832" s="2"/>
-      <c r="B832" s="2"/>
       <c r="C832" s="1" t="s">
         <v>2135</v>
       </c>
@@ -18299,28 +18313,30 @@
       </c>
     </row>
     <row r="839" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A839" s="2" t="s">
+      <c r="A839" s="2"/>
+      <c r="B839" s="2"/>
+      <c r="C839" s="1" t="s">
         <v>2156</v>
       </c>
-      <c r="B839" s="2" t="s">
+      <c r="D839" s="1" t="s">
         <v>2157</v>
       </c>
-      <c r="C839" s="1" t="s">
+      <c r="E839" s="1" t="s">
         <v>2158</v>
       </c>
-      <c r="D839" s="1" t="s">
+    </row>
+    <row r="840" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A840" s="2" t="s">
         <v>2159</v>
       </c>
-      <c r="E839" s="1"/>
-    </row>
-    <row r="840" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A840" s="2"/>
-      <c r="B840" s="2"/>
+      <c r="B840" s="2" t="s">
+        <v>2160</v>
+      </c>
       <c r="C840" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D840" s="1" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="E840" s="1"/>
     </row>
@@ -18328,10 +18344,10 @@
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="1" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="D841" s="1" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="E841" s="1"/>
     </row>
@@ -18339,10 +18355,10 @@
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="1" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="D842" s="1" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="E842" s="1"/>
     </row>
@@ -18350,10 +18366,10 @@
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="1" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="D843" s="1" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="E843" s="1"/>
     </row>
@@ -18361,10 +18377,10 @@
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="1" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="D844" s="1" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="E844" s="1"/>
     </row>
@@ -18372,10 +18388,10 @@
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="1" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="D845" s="1" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="E845" s="1"/>
     </row>
@@ -18383,10 +18399,10 @@
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="1" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="D846" s="1" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="E846" s="1"/>
     </row>
@@ -18394,10 +18410,10 @@
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="1" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="D847" s="1" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="E847" s="1"/>
     </row>
@@ -18405,10 +18421,10 @@
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="1" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="D848" s="1" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="E848" s="1"/>
     </row>
@@ -18416,10 +18432,10 @@
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="1" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="D849" s="1" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="E849" s="1"/>
     </row>
@@ -18427,10 +18443,10 @@
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="1" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="D850" s="1" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="E850" s="1"/>
     </row>
@@ -18438,10 +18454,10 @@
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="1" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="D851" s="1" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="E851" s="1"/>
     </row>
@@ -18449,10 +18465,10 @@
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="1" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="D852" s="1" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="E852" s="1"/>
     </row>
@@ -18460,10 +18476,10 @@
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="1" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="D853" s="1" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="E853" s="1"/>
     </row>
@@ -18471,10 +18487,10 @@
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="1" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="D854" s="1" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="E854" s="1"/>
     </row>
@@ -18482,10 +18498,10 @@
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="1" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="D855" s="1" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="E855" s="1"/>
     </row>
@@ -18493,10 +18509,10 @@
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="1" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="D856" s="1" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="E856" s="1"/>
     </row>
@@ -18504,10 +18520,10 @@
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="1" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="D857" s="1" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="E857" s="1"/>
     </row>
@@ -18515,10 +18531,10 @@
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="1" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="D858" s="1" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="E858" s="1"/>
     </row>
@@ -18526,10 +18542,10 @@
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="1" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="D859" s="1" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="E859" s="1"/>
     </row>
@@ -18537,10 +18553,10 @@
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="1" t="s">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="D860" s="1" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="E860" s="1"/>
     </row>
@@ -18548,10 +18564,10 @@
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="1" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="D861" s="1" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="E861" s="1"/>
     </row>
@@ -18559,10 +18575,10 @@
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="1" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="D862" s="1" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="E862" s="1"/>
     </row>
@@ -18570,10 +18586,10 @@
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="1" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="D863" s="1" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="E863" s="1"/>
     </row>
@@ -18581,10 +18597,10 @@
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="1" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="D864" s="1" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="E864" s="1"/>
     </row>
@@ -18592,10 +18608,10 @@
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="1" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="D865" s="1" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="E865" s="1"/>
     </row>
@@ -18603,10 +18619,10 @@
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="1" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="D866" s="1" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="E866" s="1"/>
     </row>
@@ -18614,10 +18630,10 @@
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="1" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="D867" s="1" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="E867" s="1"/>
     </row>
@@ -18625,10 +18641,10 @@
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="1" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="D868" s="1" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="E868" s="1"/>
     </row>
@@ -18636,10 +18652,10 @@
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="1" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="D869" s="1" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="E869" s="1"/>
     </row>
@@ -18647,10 +18663,10 @@
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="1" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="D870" s="1" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="E870" s="1"/>
     </row>
@@ -18658,10 +18674,10 @@
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="1" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="D871" s="1" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E871" s="1"/>
     </row>
@@ -18669,10 +18685,10 @@
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="1" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="D872" s="1" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="E872" s="1"/>
     </row>
@@ -18680,10 +18696,10 @@
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="1" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="D873" s="1" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="E873" s="1"/>
     </row>
@@ -18691,10 +18707,10 @@
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="1" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="D874" s="1" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="E874" s="1"/>
     </row>
@@ -18702,10 +18718,10 @@
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="1" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="D875" s="1" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="E875" s="1"/>
     </row>
@@ -18713,10 +18729,10 @@
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="1" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="D876" s="1" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="E876" s="1"/>
     </row>
@@ -18724,10 +18740,10 @@
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="1" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="D877" s="1" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="E877" s="1"/>
     </row>
@@ -18735,10 +18751,10 @@
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="1" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="D878" s="1" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="E878" s="1"/>
     </row>
@@ -18746,10 +18762,10 @@
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="1" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="D879" s="1" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="E879" s="1"/>
     </row>
@@ -18757,10 +18773,10 @@
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="1" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="D880" s="1" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="E880" s="1"/>
     </row>
@@ -18768,10 +18784,10 @@
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="1" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="D881" s="1" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="E881" s="1"/>
     </row>
@@ -18779,10 +18795,10 @@
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="1" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="D882" s="1" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="E882" s="1"/>
     </row>
@@ -18790,10 +18806,10 @@
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="1" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="D883" s="1" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="E883" s="1"/>
     </row>
@@ -18801,10 +18817,10 @@
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="1" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="D884" s="1" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="E884" s="1"/>
     </row>
@@ -18812,10 +18828,10 @@
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="1" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="D885" s="1" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="E885" s="1"/>
     </row>
@@ -18823,10 +18839,10 @@
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="1" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="D886" s="1" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="E886" s="1"/>
     </row>
@@ -18834,10 +18850,10 @@
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="1" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="D887" s="1" t="s">
-        <v>2211</v>
+        <v>2256</v>
       </c>
       <c r="E887" s="1"/>
     </row>
@@ -18845,10 +18861,10 @@
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="1" t="s">
-        <v>2255</v>
+        <v>2257</v>
       </c>
       <c r="D888" s="1" t="s">
-        <v>2256</v>
+        <v>2214</v>
       </c>
       <c r="E888" s="1"/>
     </row>
@@ -18856,10 +18872,10 @@
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="1" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="D889" s="1" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="E889" s="1"/>
     </row>
@@ -18867,10 +18883,10 @@
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="1" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="D890" s="1" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="E890" s="1"/>
     </row>
@@ -18878,10 +18894,10 @@
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="1" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="D891" s="1" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="E891" s="1"/>
     </row>
@@ -18889,10 +18905,10 @@
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="1" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="D892" s="1" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="E892" s="1"/>
     </row>
@@ -18900,10 +18916,10 @@
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="1" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="D893" s="1" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="E893" s="1"/>
     </row>
@@ -18911,10 +18927,10 @@
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="1" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="D894" s="1" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="E894" s="1"/>
     </row>
@@ -18922,10 +18938,10 @@
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="1" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="D895" s="1" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="E895" s="1"/>
     </row>
@@ -18933,10 +18949,10 @@
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="1" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="D896" s="1" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="E896" s="1"/>
     </row>
@@ -18944,10 +18960,10 @@
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="1" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="D897" s="1" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="E897" s="1"/>
     </row>
@@ -18955,10 +18971,10 @@
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="1" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="D898" s="1" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="E898" s="1"/>
     </row>
@@ -18966,10 +18982,10 @@
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="1" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="D899" s="1" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="E899" s="1"/>
     </row>
@@ -18977,10 +18993,10 @@
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="1" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="D900" s="1" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="E900" s="1"/>
     </row>
@@ -18988,10 +19004,10 @@
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="1" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="D901" s="1" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="E901" s="1"/>
     </row>
@@ -18999,10 +19015,10 @@
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="1" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="D902" s="1" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="E902" s="1"/>
     </row>
@@ -19010,10 +19026,10 @@
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="1" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="D903" s="1" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="E903" s="1"/>
     </row>
@@ -19021,10 +19037,10 @@
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="1" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="D904" s="1" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="E904" s="1"/>
     </row>
@@ -19032,10 +19048,10 @@
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="1" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="D905" s="1" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="E905" s="1"/>
     </row>
@@ -19043,10 +19059,10 @@
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="1" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="D906" s="1" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="E906" s="1"/>
     </row>
@@ -19054,10 +19070,10 @@
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="1" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="D907" s="1" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="E907" s="1"/>
     </row>
@@ -19065,10 +19081,10 @@
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="1" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="D908" s="1" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="E908" s="1"/>
     </row>
@@ -19076,10 +19092,10 @@
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="1" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="D909" s="1" t="s">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="E909" s="1"/>
     </row>
@@ -19087,10 +19103,10 @@
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="1" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="D910" s="1" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="E910" s="1"/>
     </row>
@@ -19098,10 +19114,10 @@
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="1" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="D911" s="1" t="s">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="E911" s="1"/>
     </row>
@@ -19109,10 +19125,10 @@
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="1" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="D912" s="1" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="E912" s="1"/>
     </row>
@@ -19120,10 +19136,10 @@
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="1" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="D913" s="1" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="E913" s="1"/>
     </row>
@@ -19131,10 +19147,10 @@
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="1" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="D914" s="1" t="s">
-        <v>2308</v>
+        <v>2309</v>
       </c>
       <c r="E914" s="1"/>
     </row>
@@ -19142,10 +19158,10 @@
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="1" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="D915" s="1" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="E915" s="1"/>
     </row>
@@ -19153,10 +19169,10 @@
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="1" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="D916" s="1" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="E916" s="1"/>
     </row>
@@ -19164,10 +19180,10 @@
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="1" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="D917" s="1" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="E917" s="1"/>
     </row>
@@ -19175,10 +19191,10 @@
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="1" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="D918" s="1" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="E918" s="1"/>
     </row>
@@ -19186,10 +19202,10 @@
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="1" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="D919" s="1" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="E919" s="1"/>
     </row>
@@ -19197,10 +19213,10 @@
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="1" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="D920" s="1" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="E920" s="1"/>
     </row>
@@ -19208,33 +19224,31 @@
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="1" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="D921" s="1" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="E921" s="1"/>
     </row>
     <row r="922" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A922" s="2" t="s">
-        <v>2323</v>
-      </c>
-      <c r="B922" s="2" t="s">
+      <c r="A922" s="2"/>
+      <c r="B922" s="2"/>
+      <c r="C922" s="1" t="s">
         <v>2324</v>
       </c>
-      <c r="C922" s="1" t="s">
+      <c r="D922" s="1" t="s">
         <v>2325</v>
       </c>
-      <c r="D922" s="1" t="s">
+      <c r="E922" s="1"/>
+    </row>
+    <row r="923" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A923" s="2" t="s">
         <v>2326</v>
       </c>
-      <c r="E922" s="1" t="s">
+      <c r="B923" s="2" t="s">
         <v>2327</v>
       </c>
-    </row>
-    <row r="923" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A923" s="2"/>
-      <c r="B923" s="2"/>
       <c r="C923" s="1" t="s">
         <v>2328</v>
       </c>
@@ -19295,6 +19309,19 @@
       </c>
       <c r="E927" s="1" t="s">
         <v>2342</v>
+      </c>
+    </row>
+    <row r="928" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A928" s="2"/>
+      <c r="B928" s="2"/>
+      <c r="C928" s="1" t="s">
+        <v>2343</v>
+      </c>
+      <c r="D928" s="1" t="s">
+        <v>2344</v>
+      </c>
+      <c r="E928" s="1" t="s">
+        <v>2345</v>
       </c>
     </row>
   </sheetData>
@@ -19401,25 +19428,25 @@
     <mergeCell ref="B782:B787"/>
     <mergeCell ref="A788:A790"/>
     <mergeCell ref="B788:B790"/>
-    <mergeCell ref="A791:A814"/>
-    <mergeCell ref="B791:B814"/>
-    <mergeCell ref="A815:A817"/>
-    <mergeCell ref="B815:B817"/>
-    <mergeCell ref="A818:A819"/>
-    <mergeCell ref="B818:B819"/>
-    <mergeCell ref="A820:A823"/>
-    <mergeCell ref="B820:B823"/>
-    <mergeCell ref="A824:A830"/>
-    <mergeCell ref="B824:B830"/>
-    <mergeCell ref="A831:A838"/>
-    <mergeCell ref="B831:B838"/>
-    <mergeCell ref="A839:A921"/>
-    <mergeCell ref="B839:B921"/>
-    <mergeCell ref="A922:A927"/>
-    <mergeCell ref="B922:B927"/>
+    <mergeCell ref="A791:A815"/>
+    <mergeCell ref="B791:B815"/>
+    <mergeCell ref="A816:A818"/>
+    <mergeCell ref="B816:B818"/>
+    <mergeCell ref="A819:A820"/>
+    <mergeCell ref="B819:B820"/>
+    <mergeCell ref="A821:A824"/>
+    <mergeCell ref="B821:B824"/>
+    <mergeCell ref="A825:A831"/>
+    <mergeCell ref="B825:B831"/>
+    <mergeCell ref="A832:A839"/>
+    <mergeCell ref="B832:B839"/>
+    <mergeCell ref="A840:A922"/>
+    <mergeCell ref="B840:B922"/>
+    <mergeCell ref="A923:A928"/>
+    <mergeCell ref="B923:B928"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
